--- a/奨学金返金書類/（３）H30様式1-3　指導教員等の推薦理由_下書き２.xlsx
+++ b/奨学金返金書類/（３）H30様式1-3　指導教員等の推薦理由_下書き２.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nozomu/Documents/yakisaba/奨学金返金書類/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Documents\yakisaba\奨学金返金書類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7B56B0-DF1A-1D43-950C-116E988CC74D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1401E0D1-ABF9-4006-B8F2-F2834E5166D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{B351DA30-97F9-3B41-AC82-7D6D9A66E4A6}"/>
+    <workbookView xWindow="1035" yWindow="0" windowWidth="25605" windowHeight="16005" xr2:uid="{B351DA30-97F9-3B41-AC82-7D6D9A66E4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -188,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -575,200 +575,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7023DBC9-5DCA-0144-A011-6A6CB2EA4423}">
-  <dimension ref="B3:B41"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="93.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="93.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2">
-      <c r="B3" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="1" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="1" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="1" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="1" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="1" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="1" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="1" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="1" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="1" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="1" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="1" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="1" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="1" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="1" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="1" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="1" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="1" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="1" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="1" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="1" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="1" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="1" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="1" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="1" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="1" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="1" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="1" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="1" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="1" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="1" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="1" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="1"/>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/奨学金返金書類/（３）H30様式1-3　指導教員等の推薦理由_下書き２.xlsx
+++ b/奨学金返金書類/（３）H30様式1-3　指導教員等の推薦理由_下書き２.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Documents\yakisaba\奨学金返金書類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1401E0D1-ABF9-4006-B8F2-F2834E5166D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F002DE3B-1632-4069-9AB5-1A7569AE933A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="0" windowWidth="25605" windowHeight="16005" xr2:uid="{B351DA30-97F9-3B41-AC82-7D6D9A66E4A6}"/>
+    <workbookView xWindow="2070" yWindow="0" windowWidth="25605" windowHeight="16005" xr2:uid="{B351DA30-97F9-3B41-AC82-7D6D9A66E4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,21 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>推薦者は申請者が東京大学大学院理学系研究科へ入学することが決まった時から申請者のことを知る立場にある。</t>
-    <rPh sb="0" eb="1">
-      <t>シn</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>以下、申請者の指導教員として貴機構の奨学金の返済免除資格を満たしていると思われる理由を述べる。</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>第一に申請者の研究遂行能力が卓越している点である。具体的には下記の通りである。</t>
     <rPh sb="0" eb="2">
@@ -60,37 +46,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>(2)研究活動の一環において大学外部の研究者あるいは会社員とスムーズなコミュニケーションをとり積極的に技術</t>
-  </si>
-  <si>
-    <t>習得に取り組んだ。</t>
-    <rPh sb="0" eb="2">
-      <t>。</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>第二に勉学への意欲・行動力が卓越している。具体的には</t>
-    <rPh sb="0" eb="1">
-      <t>ダイn</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>(1)光物性研究討論会に積極的に参加し他の研究室の学生と議論を通じて自らの研究だけでなく異分野の理解も行った。</t>
-    <rPh sb="0" eb="1">
-      <t>ヒカr</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>(2)本理学系研究科物理学専攻において学業成績評価の全てが「優」であったことである。</t>
-    <rPh sb="0" eb="1">
-      <t>ホn</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>申請者の今後の支援として返済免除措置についてご高配を賜るようお願い申し上げる。</t>
     <rPh sb="0" eb="2">
       <t>コンg</t>
@@ -98,71 +53,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>上記奨学生はを奨学金返済免除者に推薦する理由は、研究へのひたむきな態度および研究室での円滑な人間関係構築</t>
-  </si>
-  <si>
-    <t>上記奨学生は試料測定を率先して行い多種多用な種類の半導体レーザーサンプルの測定に精を出した。修士1年では</t>
-  </si>
-  <si>
-    <t>測定系の構築に力を入れ特に測定機器の自動化に尽力した。プログラミングについて自ら学び試行錯誤することで測</t>
-  </si>
-  <si>
-    <t>定機器を自動コントロールするような実験系を立ち上げた。研究室では初めての測定系であり今後も使い続けること</t>
-  </si>
-  <si>
-    <t>のできる財産となる仕事である。自動化を行なった実験系を用いた迅速な評価測定により研究室全体のプロジェクト</t>
-  </si>
-  <si>
-    <t>の指針となる重要なデータを取り大きな貢献を果たした。修士2年においては同様の測定も行いさらなるデー</t>
-    <rPh sb="0" eb="1">
-      <t>オオキn</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>タ収集にひたむきに努めた。加えて今度はより肝心な試料作製にも率先して取り組んだ。測定装置の立ち上げで得た</t>
-  </si>
-  <si>
-    <t>知見からどのような試料が測定に適しているのかについて試行錯誤し試料のマウント方法を身につけた。また露光装</t>
-  </si>
-  <si>
-    <t>置や蒸着装置の使用方法習得を行い半導体プロセスを積極的に行うことで次なるデザインの試料作製にも貢献した。</t>
-  </si>
-  <si>
-    <t>特にフォトマスクのデザインに注力し初めて触れたにも関わらず短期間のうちにCADデータを自由に扱えるほど習熟</t>
-  </si>
-  <si>
-    <t>した。半導体プロセスや試料マウントにおいては学外の研究所の設備や企業での装置トレーニングに足繁く赴き、こ</t>
-  </si>
-  <si>
-    <t>の姿勢は奨学生の社交的な一面と測定を行うという目的への意欲の高さを表していた。以上のように上記奨学生は研</t>
-  </si>
-  <si>
-    <t>究を行う過程においてプログラミングスキルや装置取扱技術など様々な技能を独自、あるいは外部の方の協力を得な</t>
-  </si>
-  <si>
-    <t>がら習得し優れたデータを出した。</t>
-  </si>
-  <si>
-    <t>奨学生は研究室では他のメンバーとの交流を積極的に行った。後輩に対しては大学院でのとるべき授業や履修方法な</t>
-  </si>
-  <si>
-    <t>どの基本的な事項を指導した。研究に関してはテーマこそ異なったものの扱う分光装置や電流源などは同様であった</t>
-  </si>
-  <si>
-    <t>ためよく様子を見に行きアドバイスを行なった。海外からの研究員ともコミュニケーションをよく取り一緒に昼ご飯</t>
-  </si>
-  <si>
-    <t>を食べるなど非常に良い関係性を築いた。測定やプロセスを同時に行うこともよくありスムーズに行うことができて</t>
-    <rPh sb="0" eb="2">
-      <t>ヒジョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>いた。</t>
-  </si>
-  <si>
     <t>以上の理由において上記奨学生は奨学金返済免除対象者に推薦する。</t>
     <rPh sb="0" eb="2">
       <t>リユ</t>
@@ -170,25 +60,294 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>(3)学会に聴講者として参加し最先端の研究を学び吸収することを心がけたことである。</t>
+    <t>第二に勉学への意欲・行動力が卓越している。具体的には以下の通りである。</t>
+    <rPh sb="0" eb="1">
+      <t>ダイn</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(2)本理学系研究科物理学専攻において学業成績評価の全てが「優」であった。</t>
+    <rPh sb="0" eb="1">
+      <t>ホn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(3)学会に聴講者として参加し最先端の研究を学び吸収することを心がけた。</t>
     <rPh sb="0" eb="2">
       <t>ガッk</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>において優れており成果を出すことにつなげた点である。詳細は以下の通りである。</t>
+    <t>第三に人間関係構築能力が卓越している点である。具体的には以下の通りである。</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タクエツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(4)研究室同期の学生と光物性に関する勉強会を企画し行った。</t>
+    <rPh sb="3" eb="6">
+      <t>ケンキュウシツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ドウキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブッセイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ベンキョウカイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(3)地味かつ細やかな測定作業を実直にこなし系統的なデータを取得した。</t>
+    <rPh sb="3" eb="5">
+      <t>ジミ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソクテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッチョク</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ケイトウテキ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(2)研究室において外国人研究員と英語・日本語を交えて深いコミュニケーションをとり研究を円滑に進めた。</t>
+    <rPh sb="3" eb="6">
+      <t>ケンキュウシツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガイコク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ケンキュウイン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>エイゴ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>マジ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ケンキュウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>エンカツ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(1)大学院での基本的な生活や履修を教えるなど後輩指導をかいがいしく行った。</t>
+    <rPh sb="3" eb="6">
+      <t>ダイガクイン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイカツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>リシュウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オシ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウハイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シドウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>推薦者は申請者が東京大学大学院理学系研究科へ入学することが決定したときから申請者のことを知る立場に</t>
+  </si>
+  <si>
+    <t>ある。以下、申請者の指導教員として貴機構の奨学金の返済免除資格を満たしていると考える理由を述べる。</t>
+  </si>
+  <si>
+    <t>(2)プロジェクトにおける自分の役割を把握し、他の役割を担う人と密に相談・議論を行いながらを開発プロセ</t>
+  </si>
+  <si>
+    <t>スを進めた。</t>
+  </si>
+  <si>
+    <t>(4)研究活動の一環において大学外部の研究者あるいは会社員とスムーズなコミュニケーションをとり積極的に</t>
+  </si>
+  <si>
+    <t>技術習得に取り組んだ。</t>
+  </si>
+  <si>
+    <t>(1)光物性研究討論会に積極的に参加し発表を行い、他の大学・研究室の学生と議論を通じて自らの研究への理</t>
+  </si>
+  <si>
+    <t>解を深め、また異分野の理解も行った。</t>
+  </si>
+  <si>
+    <t>上記奨学生はを奨学金返済免除者に推薦する理由は、研究へのひたむきな態度および研究室での円滑な人間関</t>
+  </si>
+  <si>
+    <t>係構築において優れており成果を出すことにつなげた点である。詳細は以下の通りである。</t>
+  </si>
+  <si>
+    <t>上記奨学生は試料測定を率先して行い多種多用な種類の半導体レーザーサンプルの測定に精を出した。修士1年</t>
+  </si>
+  <si>
+    <t>では測定系の構築に力を入れ特に測定機器の自動化に尽力した。プログラミングについて自ら学び試行錯誤す</t>
+  </si>
+  <si>
+    <t>ることで測定機器を自動コントロールするような実験系を立ち上げた。研究室では初めての測定系であり今後</t>
+  </si>
+  <si>
+    <t>も使い続けることのできる財産となる仕事である。自動化を行なった実験系を用いた迅速な評価測定により研</t>
+  </si>
+  <si>
+    <t>究室全体のプロジェクトの指針となる重要なデータを取り大きな貢献を果たした。修士2年においては同様の測</t>
+  </si>
+  <si>
+    <t>定も行いさらなるデータ収集にひたむきに努めた。加えて今度はより肝心な試料作製にも率先して取り組ん</t>
+  </si>
+  <si>
+    <t>だ。測定装置の立ち上げで得た知見からどのような試料が測定に適しているのかについて試行錯誤し試料のマ</t>
+  </si>
+  <si>
+    <t>ウント方法を身につけた。また露光装置や蒸着装置の使用方法習得を行い半導体プロセスを積極的に行うこと</t>
+  </si>
+  <si>
+    <t>で次なるデザインの試料作製にも貢献した。特にフォトマスクのデザインに注力し初めて触れたにも関わらず</t>
+  </si>
+  <si>
+    <t>短期間のうちにCADデータを自由に扱えるほど習熟した。半導体プロセスや試料マウントにおいては学外の研究</t>
+  </si>
+  <si>
+    <t>所の設備や企業での装置トレーニングに足繁く赴き、この姿勢は奨学生の社交的な一面と測定を行うという目</t>
+  </si>
+  <si>
+    <t>的への意欲の高さを表していた。以上のように上記奨学生は研究を行う過程においてプログラミングスキルや</t>
+  </si>
+  <si>
+    <t>装置取扱技術など様々な技能を独自、あるいは外部の方の協力を得ながら習得し優れたデータを出した。</t>
+  </si>
+  <si>
+    <t>奨学生は研究室では他のメンバーとの交流を積極的に行った。後輩に対しては大学院でのとるべき授業や履修</t>
+  </si>
+  <si>
+    <t>方法などの基本的な事項を指導した。研究に関してはテーマこそ異なったものの扱う分光装置や電流源などは</t>
+  </si>
+  <si>
+    <t>同様であったためよく様子を見に行きアドバイスを行なった。海外からの研究員ともコミュニケーションをよ</t>
+  </si>
+  <si>
+    <t>く取り一緒に昼ご飯を食べるなど非常に良い関係性を築いた。測定やプロセスを同時に行うこともよくありス</t>
+  </si>
+  <si>
+    <t>ムーズに行うことができていた。</t>
+  </si>
+  <si>
+    <t>下書きその２</t>
     <rPh sb="0" eb="2">
-      <t>ショウサ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
+      <t>シタガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下書きその1</t>
+    <rPh sb="0" eb="2">
+      <t>シタガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -198,10 +357,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
@@ -214,6 +375,12 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -254,11 +421,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -575,189 +748,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7023DBC9-5DCA-0144-A011-6A6CB2EA4423}">
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:A63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="93.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.6640625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
+      <c r="A7" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
+      <c r="A9" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>10</v>
+      <c r="A16" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
-        <v>18</v>
+      <c r="A23" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A30" s="1" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A35" s="1" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A36" s="1" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A37" s="1"/>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/奨学金返金書類/（３）H30様式1-3　指導教員等の推薦理由_下書き２.xlsx
+++ b/奨学金返金書類/（３）H30様式1-3　指導教員等の推薦理由_下書き２.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Documents\yakisaba\奨学金返金書類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F002DE3B-1632-4069-9AB5-1A7569AE933A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19940888-92B2-4300-9B6B-36B1B69B7E19}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="0" windowWidth="25605" windowHeight="16005" xr2:uid="{B351DA30-97F9-3B41-AC82-7D6D9A66E4A6}"/>
+    <workbookView xWindow="3105" yWindow="0" windowWidth="25605" windowHeight="16005" xr2:uid="{B351DA30-97F9-3B41-AC82-7D6D9A66E4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,28 +36,28 @@
     <rPh sb="0" eb="2">
       <t>シンセ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>(1)半導体レーザーの評価測定実験方法を自ら考え測定系を構築した。</t>
     <rPh sb="0" eb="2">
       <t>ブツr</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>申請者の今後の支援として返済免除措置についてご高配を賜るようお願い申し上げる。</t>
     <rPh sb="0" eb="2">
       <t>コンg</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>以上の理由において上記奨学生は奨学金返済免除対象者に推薦する。</t>
     <rPh sb="0" eb="2">
       <t>リユ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>第二に勉学への意欲・行動力が卓越している。具体的には以下の通りである。</t>
@@ -70,21 +70,21 @@
     <rPh sb="29" eb="30">
       <t>トオ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>(2)本理学系研究科物理学専攻において学業成績評価の全てが「優」であった。</t>
     <rPh sb="0" eb="1">
       <t>ホn</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>(3)学会に聴講者として参加し最先端の研究を学び吸収することを心がけた。</t>
     <rPh sb="0" eb="2">
       <t>ガッk</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>第三に人間関係構築能力が卓越している点である。具体的には以下の通りである。</t>
@@ -121,7 +121,7 @@
     <rPh sb="31" eb="32">
       <t>トオ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>(4)研究室同期の学生と光物性に関する勉強会を企画し行った。</t>
@@ -152,7 +152,7 @@
     <rPh sb="26" eb="27">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>(3)地味かつ細やかな測定作業を実直にこなし系統的なデータを取得した。</t>
@@ -177,7 +177,7 @@
     <rPh sb="30" eb="32">
       <t>シュトク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>(2)研究室において外国人研究員と英語・日本語を交えて深いコミュニケーションをとり研究を円滑に進めた。</t>
@@ -214,7 +214,7 @@
     <rPh sb="47" eb="48">
       <t>スス</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>(1)大学院での基本的な生活や履修を教えるなど後輩指導をかいがいしく行った。</t>
@@ -242,25 +242,7 @@
     <rPh sb="34" eb="35">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>推薦者は申請者が東京大学大学院理学系研究科へ入学することが決定したときから申請者のことを知る立場に</t>
-  </si>
-  <si>
-    <t>ある。以下、申請者の指導教員として貴機構の奨学金の返済免除資格を満たしていると考える理由を述べる。</t>
-  </si>
-  <si>
-    <t>(2)プロジェクトにおける自分の役割を把握し、他の役割を担う人と密に相談・議論を行いながらを開発プロセ</t>
-  </si>
-  <si>
-    <t>スを進めた。</t>
-  </si>
-  <si>
-    <t>(4)研究活動の一環において大学外部の研究者あるいは会社員とスムーズなコミュニケーションをとり積極的に</t>
-  </si>
-  <si>
-    <t>技術習得に取り組んだ。</t>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>(1)光物性研究討論会に積極的に参加し発表を行い、他の大学・研究室の学生と議論を通じて自らの研究への理</t>
@@ -333,23 +315,55 @@
     <rPh sb="0" eb="2">
       <t>シタガ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>下書きその1</t>
     <rPh sb="0" eb="2">
       <t>シタガ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>推薦者は申請者が東京大学大学院理学系研究科へ入学することが決定したときから申請者のことを知る立場に</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ある。以下、申請者の指導教員として貴機構の奨学金の返済免除資格を満たしていると考える理由を述べる。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(2)プロジェクトにおける自分の役割を把握し、他の役割を担う人と密に相談・議論を行いながらを開発プロセ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スを進めた。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(4)研究活動の一環において大学外部の研究者あるいは会社員とスムーズなコミュニケーションをとり積極的に</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>技術習得に取り組んだ。</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
@@ -421,17 +435,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -751,7 +768,7 @@
   <dimension ref="A1:A63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -762,17 +779,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
@@ -790,12 +807,12 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
+      <c r="A8" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
@@ -805,12 +822,12 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
@@ -820,12 +837,12 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
@@ -868,107 +885,107 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.4">
@@ -977,7 +994,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
